--- a/chat_comparison.xlsx
+++ b/chat_comparison.xlsx
@@ -547,11 +547,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>спасибо</t>
+          <t>yndxcbot</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -584,11 +584,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>только</t>
+          <t>яндекс</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
